--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C0138-C9C4-427D-A718-6EC4AAF937EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA51C7F7-819B-4E88-A45A-D65138D0E52C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,13 +127,60 @@
   </si>
   <si>
     <t>2:20,10001:30,30001:1</t>
-  </si>
-  <si>
-    <t>2:20,10001:30,30001:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀怪物N只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀蓝蜗牛2只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>args</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数（int）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：
+1：击杀怪物
+2：提升等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要变强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高等级至2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:20,10001:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护安全村的勇士需要达到一定的等级吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇士你比之前看起来更强了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好像还没变强啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,8 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -272,7 +322,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -527,27 +577,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="42.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.21875" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -560,29 +610,38 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -596,320 +655,119 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10002</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3">
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>104</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="L4">
-        <v>104</v>
-      </c>
-      <c r="M4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>104</v>
-      </c>
-      <c r="M5">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6">
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <v>104</v>
-      </c>
-      <c r="M6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>104</v>
-      </c>
-      <c r="M7">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-      <c r="L8">
-        <v>104</v>
-      </c>
-      <c r="M8">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>104</v>
-      </c>
-      <c r="M9">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="L10">
-        <v>104</v>
-      </c>
-      <c r="M10">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-      <c r="L11">
-        <v>104</v>
-      </c>
-      <c r="M11">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>104</v>
-      </c>
-      <c r="M12">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>104</v>
-      </c>
-      <c r="M13">
-        <v>1001</v>
+      <c r="O4">
+        <v>101</v>
+      </c>
+      <c r="P4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA51C7F7-819B-4E88-A45A-D65138D0E52C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53B296-5B9A-4C6D-BCD6-3BD094511335}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,36 +151,61 @@
   </si>
   <si>
     <t>参数（int）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要变强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高等级至2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:20,10001:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护安全村的勇士需要达到一定的等级吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇士你比之前看起来更强了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好像还没变强啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型：
 1：击杀怪物
-2：提升等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要变强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高等级至2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:20,10001:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护安全村的勇士需要达到一定的等级吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇士你比之前看起来更强了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好像还没变强啊</t>
+2：提升等级
+3：npc对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找失散的小坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明女士最近很烦恼，他儿子丢了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与小坤对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢你。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还找不到小坤吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:10,10002:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,11 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -322,7 +348,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -577,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -588,7 +614,7 @@
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
     <col min="9" max="9" width="42.88671875" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" customWidth="1"/>
     <col min="11" max="11" width="26.21875" customWidth="1"/>
@@ -611,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
@@ -743,22 +769,22 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
         <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
       </c>
       <c r="N4">
         <v>20</v>
@@ -767,6 +793,47 @@
         <v>101</v>
       </c>
       <c r="P4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>101</v>
+      </c>
+      <c r="P5">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53B296-5B9A-4C6D-BCD6-3BD094511335}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE81D3-D482-4BF2-BD76-5FB2680945A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,37 +175,58 @@
   </si>
   <si>
     <t>你好像还没变强啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找失散的小坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明女士最近很烦恼，他儿子丢了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与小坤对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢你。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还找不到小坤吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:10,10002:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型：
 1：击杀怪物
 2：提升等级
-3：npc对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找失散的小坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明明女士最近很烦恼，他儿子丢了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与小坤对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢谢你。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还找不到小坤吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:10,10002:10</t>
+3：npc对话
+4：某种虚物达到多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识富二代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小坤想和有钱人交朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币达到200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带我飞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离我远点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,17 +624,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="7" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" customWidth="1"/>
     <col min="9" max="9" width="42.88671875" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" customWidth="1"/>
@@ -623,7 +645,7 @@
     <col min="14" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -637,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
@@ -810,22 +832,22 @@
         <v>103</v>
       </c>
       <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="N5">
         <v>10</v>
@@ -834,6 +856,47 @@
         <v>101</v>
       </c>
       <c r="P5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>103</v>
+      </c>
+      <c r="P6">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE81D3-D482-4BF2-BD76-5FB2680945A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64D348-5D9A-4FB5-81D7-85864B44B87C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,26 @@
   </si>
   <si>
     <t>2:10,10002:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识富二代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小坤想和有钱人交朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币达到200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带我飞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离我远点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,27 +226,32 @@
 1：击杀怪物
 2：提升等级
 3：npc对话
-4：某种虚物达到多少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认识富二代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小坤想和有钱人交朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币达到200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带我飞。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离我远点</t>
+4：某种虚物达到多少
+5：添加一个好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友一生一起走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会步我后尘了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还没交到朋友吗，那会和我一样孤独啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手村孤独的老者要死了，他想劝劝年轻人多交朋友啊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -637,10 +662,10 @@
     <col min="5" max="5" width="23.109375" customWidth="1"/>
     <col min="6" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="42.88671875" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" customWidth="1"/>
     <col min="11" max="11" width="26.21875" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="12" max="12" width="38.88671875" customWidth="1"/>
     <col min="13" max="13" width="20.88671875" customWidth="1"/>
     <col min="14" max="15" width="10.77734375" customWidth="1"/>
   </cols>
@@ -659,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
@@ -876,19 +901,19 @@
         <v>200</v>
       </c>
       <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>48</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
       </c>
       <c r="N6">
         <v>10</v>
@@ -897,6 +922,44 @@
         <v>103</v>
       </c>
       <c r="P6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>105</v>
+      </c>
+      <c r="P7">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64D348-5D9A-4FB5-81D7-85864B44B87C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D72AB2A-C1D7-4856-B39F-0C0956519AD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,30 @@
   </si>
   <si>
     <t>离我远点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友一生一起走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会步我后尘了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还没交到朋友吗，那会和我一样孤独啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手村孤独的老者要死了，他想劝劝年轻人多交朋友啊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -227,31 +251,32 @@
 2：提升等级
 3：npc对话
 4：某种虚物达到多少
-5：添加一个好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友一生一起走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一个朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会步我后尘了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还没交到朋友吗，那会和我一样孤独啊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手村孤独的老者要死了，他想劝劝年轻人多交朋友啊。</t>
+5：添加一个好友
+6：装备穿戴等级总和达到多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表最强战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上佩戴装备等级总和达到2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你成为地表最强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手村要评选地表最强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,21 +674,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="7" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" customWidth="1"/>
     <col min="9" max="9" width="51" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="26.21875" customWidth="1"/>
     <col min="12" max="12" width="38.88671875" customWidth="1"/>
     <col min="13" max="13" width="20.88671875" customWidth="1"/>
@@ -684,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
@@ -936,22 +962,22 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -960,6 +986,47 @@
         <v>105</v>
       </c>
       <c r="P7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>102</v>
+      </c>
+      <c r="P8">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D72AB2A-C1D7-4856-B39F-0C0956519AD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD2126F-40F8-4171-8CD8-D55335AF5AF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,62 @@
   </si>
   <si>
     <t>新手村孤独的老者要死了，他想劝劝年轻人多交朋友啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表最强战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上佩戴装备等级总和达到2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你成为地表最强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手村要评选地表最强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结就是力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呵呵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还没组好队吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外面的世界很危险，尝试组下队伍把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoAccept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动接取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCommit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -252,31 +308,12 @@
 3：npc对话
 4：某种虚物达到多少
 5：添加一个好友
-6：装备穿戴等级总和达到多少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地表最强战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身上佩戴装备等级总和达到2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜你成为地表最强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手村要评选地表最强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30001:1</t>
+6：装备穿戴等级总和达到多少
+7：第一次加入组队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次加入组队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +456,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -674,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -685,18 +722,21 @@
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="51" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="26.21875" customWidth="1"/>
-    <col min="12" max="12" width="38.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1"/>
-    <col min="14" max="15" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="51" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="26.21875" customWidth="1"/>
+    <col min="14" max="14" width="38.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="17" width="10.77734375" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -710,37 +750,43 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -757,40 +803,46 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -800,35 +852,41 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>10002</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>26</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>20</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>104</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -838,38 +896,44 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>101</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -879,38 +943,44 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>103</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>10</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>101</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -920,38 +990,44 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>200</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>48</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>103</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -961,35 +1037,41 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>52</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>105</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -999,34 +1081,84 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
       </c>
       <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
         <v>61</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>102</v>
+      </c>
+      <c r="R8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>62</v>
       </c>
-      <c r="N8">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>102</v>
-      </c>
-      <c r="P8">
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>101</v>
+      </c>
+      <c r="R9">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD2126F-40F8-4171-8CD8-D55335AF5AF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD41AA1C-50A1-4652-9B61-B1BABFF094BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>团结就是力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>呵呵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外面的世界很危险，尝试组下队伍把</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>autoAccept</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,6 +291,10 @@
   </si>
   <si>
     <t>autoCommit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次加入组队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,11 +305,36 @@
 4：某种虚物达到多少
 5：添加一个好友
 6：装备穿戴等级总和达到多少
-7：第一次加入组队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次加入组队</t>
+7：第一次加入组队
+8：第一次加入公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结就是力量1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结就是力量2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外面的世界很危险，尝试加入公会吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外面的世界很危险，尝试组下队伍吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次加入公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还没加入公会吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -750,13 +771,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>29</v>
@@ -803,10 +824,10 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -1125,6 +1146,9 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
       <c r="E9">
         <v>7</v>
       </c>
@@ -1135,19 +1159,19 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
         <v>62</v>
       </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>63</v>
-      </c>
-      <c r="N9" t="s">
-        <v>64</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>54</v>
@@ -1159,6 +1183,53 @@
         <v>101</v>
       </c>
       <c r="R9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>101</v>
+      </c>
+      <c r="R10">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD41AA1C-50A1-4652-9B61-B1BABFF094BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53819972-7D4F-475A-813E-E5A6F078A64E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,34 @@
   </si>
   <si>
     <t>第一次加入组队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结就是力量1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结就是力量2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外面的世界很危险，尝试加入公会吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外面的世界很危险，尝试组下队伍吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次加入公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还没加入公会吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,35 +334,27 @@
 5：添加一个好友
 6：装备穿戴等级总和达到多少
 7：第一次加入组队
-8：第一次加入公会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团结就是力量1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团结就是力量2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外面的世界很危险，尝试加入公会吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外面的世界很危险，尝试组下队伍吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次加入公会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还没加入公会吗</t>
+8：第一次加入公会
+9：第一次与玩家交易成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结就是力量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会互利共赢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次与玩家交易成功</t>
+  </si>
+  <si>
+    <t>嘿嘿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还没完成一次交易吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -757,7 +777,7 @@
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="140.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -771,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>65</v>
@@ -1159,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -1196,6 +1216,9 @@
       <c r="C10">
         <v>7</v>
       </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
       <c r="E10">
         <v>8</v>
       </c>
@@ -1206,19 +1229,19 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
         <v>71</v>
       </c>
-      <c r="K10" t="s">
-        <v>72</v>
-      </c>
       <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" t="s">
         <v>74</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>75</v>
-      </c>
-      <c r="N10" t="s">
-        <v>76</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>54</v>
@@ -1230,6 +1253,53 @@
         <v>101</v>
       </c>
       <c r="R10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>101</v>
+      </c>
+      <c r="R11">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53819972-7D4F-475A-813E-E5A6F078A64E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DF998-7C94-4378-BC59-C96358DCC06B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数（int）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我要变强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,6 +319,53 @@
   </si>
   <si>
     <t>你还没加入公会吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结就是力量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会互利共赢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次与玩家交易成功</t>
+  </si>
+  <si>
+    <t>嘿嘿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还没完成一次交易吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗恋的香吉士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成明明女士的所有任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要能帮到明明女士，我就心满意足了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,26 +378,8 @@
 6：装备穿戴等级总和达到多少
 7：第一次加入组队
 8：第一次加入公会
-9：第一次与玩家交易成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团结就是力量3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学会互利共赢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次与玩家交易成功</t>
-  </si>
-  <si>
-    <t>嘿嘿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还没完成一次交易吗</t>
+9：第一次与玩家交易成功
+10：完成系列任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -777,7 +802,7 @@
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="140.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="197.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -791,19 +816,19 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -844,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -947,22 +972,22 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
         <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
       </c>
       <c r="P4">
         <v>20</v>
@@ -994,22 +1019,22 @@
         <v>103</v>
       </c>
       <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>40</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>42</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="P5">
         <v>10</v>
@@ -1044,19 +1069,19 @@
         <v>200</v>
       </c>
       <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>47</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
       </c>
       <c r="P6">
         <v>10</v>
@@ -1085,22 +1110,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>51</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>52</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -1132,22 +1157,22 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" t="s">
         <v>56</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>60</v>
-      </c>
-      <c r="O8" t="s">
-        <v>61</v>
       </c>
       <c r="P8">
         <v>10</v>
@@ -1179,22 +1204,22 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s">
         <v>62</v>
       </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9">
         <v>5</v>
@@ -1229,22 +1254,22 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
         <v>70</v>
       </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
       <c r="L10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="s">
         <v>73</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>74</v>
       </c>
-      <c r="N10" t="s">
-        <v>75</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10">
         <v>5</v>
@@ -1276,22 +1301,22 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
         <v>77</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>78</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>79</v>
       </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>81</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11">
         <v>5</v>
@@ -1300,6 +1325,53 @@
         <v>101</v>
       </c>
       <c r="R11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>102</v>
+      </c>
+      <c r="R12">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DF998-7C94-4378-BC59-C96358DCC06B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FB283E-BCDE-4981-9B19-DBAB4A8E258C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,14 @@
   </si>
   <si>
     <t>？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于不会被欺负了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来我还要被欺负</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,7 +387,28 @@
 7：第一次加入组队
 8：第一次加入公会
 9：第一次与玩家交易成功
-10：完成系列任务</t>
+10：完成系列任务
+11：通关某个副本n次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征队集结1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛苦了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战玩具塔副本，击退闹钟啾啾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关玩具塔副本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +551,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -777,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -816,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>64</v>
@@ -938,6 +967,12 @@
       </c>
       <c r="L3" t="s">
         <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -1372,6 +1407,56 @@
         <v>102</v>
       </c>
       <c r="R12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>106</v>
+      </c>
+      <c r="R13">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FB283E-BCDE-4981-9B19-DBAB4A8E258C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99EE9D9-8EA3-4419-AB12-A351A574A29F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,34 @@
   </si>
   <si>
     <t>看来我还要被欺负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征队集结1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛苦了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战玩具塔副本，击退闹钟啾啾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关玩具塔副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匠人之魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手村的匠人之神最近有点烦恼，快去看看吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,27 +416,20 @@
 8：第一次加入公会
 9：第一次与玩家交易成功
 10：完成系列任务
-11：通关某个副本n次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远征队集结1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛苦了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战玩具塔副本，击退闹钟啾啾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关玩具塔副本</t>
+11：通关某个副本n次
+12：获得n件达到最高品级的装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2件达到最高品级的装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没好吗，快来不及了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,24 +827,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="17.5546875" customWidth="1"/>
     <col min="11" max="11" width="51" customWidth="1"/>
-    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" customWidth="1"/>
     <col min="13" max="13" width="26.21875" customWidth="1"/>
     <col min="14" max="14" width="38.88671875" customWidth="1"/>
     <col min="15" max="15" width="20.88671875" customWidth="1"/>
@@ -845,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>64</v>
@@ -1433,19 +1454,19 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" t="s">
         <v>90</v>
       </c>
-      <c r="K13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>91</v>
-      </c>
-      <c r="N13" t="s">
-        <v>92</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>53</v>
@@ -1457,6 +1478,53 @@
         <v>106</v>
       </c>
       <c r="R13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>107</v>
+      </c>
+      <c r="R14">
         <v>1000</v>
       </c>
     </row>

--- a/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
+++ b/server/docs/MissionCfgExcel_com.wan37.config.entity.MissionCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99EE9D9-8EA3-4419-AB12-A351A574A29F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F7464C-50C9-4E16-9440-88FDA852E84C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,18 @@
   </si>
   <si>
     <t>新手村的匠人之神最近有点烦恼，快去看看吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2件达到最高品级的装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没好吗，快来不及了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -417,19 +429,20 @@
 9：第一次与玩家交易成功
 10：完成系列任务
 11：通关某个副本n次
-12：获得n件达到最高品级的装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2件达到最高品级的装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还没好吗，快来不及了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30001:1</t>
+12：获得n件达到最高品级的装备
+13：第一次在pk中战胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk之王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次在pk中胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -866,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>64</v>
@@ -1507,16 +1520,16 @@
         <v>95</v>
       </c>
       <c r="L14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
         <v>41</v>
       </c>
       <c r="N14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1525,6 +1538,47 @@
         <v>107</v>
       </c>
       <c r="R14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>107</v>
+      </c>
+      <c r="R15">
         <v>1000</v>
       </c>
     </row>
